--- a/APB_RAL_Verification_Plan.xlsx
+++ b/APB_RAL_Verification_Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="480" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3377822C-89CF-4EBA-B813-8056A220BA6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09E79FF-957F-4F1D-9653-037D6021035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegModel" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="168">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>0x18</t>
+  </si>
+  <si>
+    <t>RO</t>
   </si>
   <si>
     <t>Test ID</t>
@@ -737,6 +740,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,10 +753,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,7 +1090,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1242,7 +1245,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D09C827-FA26-4088-890C-256FC2B11CED}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,248 +1275,248 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45.75">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.75">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="54.75">
       <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="54.75">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="54.75">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="72.75">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="54.75">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>74</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.75">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="72.75">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -1757,506 +1760,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6696366-07A1-417D-9EEF-D1A929976349}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="5" width="45" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="54.75">
       <c r="A1" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="46.5">
       <c r="A3" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30.75">
       <c r="A10" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="30.75">
       <c r="A11" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="30.75">
       <c r="A18" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30.75">
       <c r="A19" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="30.75">
       <c r="A20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="30.75">
       <c r="A21" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="13" t="s">
         <v>153</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.75">
+      <c r="A27" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" s="11"/>
     </row>
